--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43441,6 +43441,41 @@
         <v>514600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1225200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43476,6 +43476,41 @@
         <v>1225200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1620000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43511,6 +43511,41 @@
         <v>1620000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>100800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43546,6 +43546,41 @@
         <v>100800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>211900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43581,6 +43581,41 @@
         <v>211900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>544300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43616,6 +43616,41 @@
         <v>544300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>219000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43651,6 +43651,41 @@
         <v>219000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>254000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,41 @@
         <v>254000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>543000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43721,6 +43721,41 @@
         <v>543000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>146000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43756,6 +43756,41 @@
         <v>146000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>685500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43791,6 +43791,41 @@
         <v>685500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>145700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43826,6 +43826,41 @@
         <v>145700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43861,6 +43861,76 @@
         <v>67000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>405500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>470000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43931,6 +43931,76 @@
         <v>470000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>749400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>119200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44001,6 +44001,41 @@
         <v>119200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>275000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44036,6 +44036,41 @@
         <v>275000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>348700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44071,6 +44071,41 @@
         <v>348700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>57000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44106,6 +44106,41 @@
         <v>57000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1056000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44141,6 +44141,76 @@
         <v>1056000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>229300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44211,6 +44211,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>229900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44246,6 +44246,41 @@
         <v>229900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>939700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69831,6 +69831,41 @@
         <v>939700</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>113800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69866,6 +69866,41 @@
         <v>113800</v>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>193600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1973"/>
+  <dimension ref="A1:I1974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69901,6 +69901,41 @@
         <v>193600</v>
       </c>
     </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>634800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1974"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69936,6 +69936,41 @@
         <v>634800</v>
       </c>
     </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>317900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1975"/>
+  <dimension ref="A1:I1976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69971,6 +69971,41 @@
         <v>317900</v>
       </c>
     </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>475900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1976"/>
+  <dimension ref="A1:I1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70006,6 +70006,41 @@
         <v>475900</v>
       </c>
     </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1977"/>
+  <dimension ref="A1:I1978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70041,6 +70041,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1978"/>
+  <dimension ref="A1:I1979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70076,6 +70076,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>263600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1979"/>
+  <dimension ref="A1:I1980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70111,6 +70111,41 @@
         <v>263600</v>
       </c>
     </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>121000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1980"/>
+  <dimension ref="A1:I1981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70146,6 +70146,41 @@
         <v>121000</v>
       </c>
     </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>58500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1981"/>
+  <dimension ref="A1:I1982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70181,6 +70181,41 @@
         <v>58500</v>
       </c>
     </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1982"/>
+  <dimension ref="A1:I1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70216,6 +70216,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>31300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1983"/>
+  <dimension ref="A1:I1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70251,6 +70251,41 @@
         <v>31300</v>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>123800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1984"/>
+  <dimension ref="A1:I1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70286,6 +70286,41 @@
         <v>123800</v>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>152800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1985"/>
+  <dimension ref="A1:I1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70321,6 +70321,41 @@
         <v>152800</v>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>78000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2691"/>
+  <dimension ref="A1:I2692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95031,6 +95031,41 @@
         <v>78000</v>
       </c>
     </row>
+    <row r="2692">
+      <c r="A2692" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2692" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2692" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2692" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2692" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2692" t="n">
+        <v>99900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2692"/>
+  <dimension ref="A1:I2693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95066,6 +95066,41 @@
         <v>99900</v>
       </c>
     </row>
+    <row r="2693">
+      <c r="A2693" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2693" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2693" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2693" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2693" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2693" t="n">
+        <v>37700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2693"/>
+  <dimension ref="A1:I2694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95101,6 +95101,41 @@
         <v>37700</v>
       </c>
     </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2694" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2694" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2694" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2694" t="n">
+        <v>64700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2694"/>
+  <dimension ref="A1:I2695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95136,6 +95136,41 @@
         <v>64700</v>
       </c>
     </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2695" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2695" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2695" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2695" t="n">
+        <v>255900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2695"/>
+  <dimension ref="A1:I2696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95171,6 +95171,41 @@
         <v>255900</v>
       </c>
     </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2696" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2696" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2696" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2696" t="n">
+        <v>147000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2696"/>
+  <dimension ref="A1:I2697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95206,6 +95206,41 @@
         <v>147000</v>
       </c>
     </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2697" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2697" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2697" t="n">
+        <v>176500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2697"/>
+  <dimension ref="A1:I2698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95241,6 +95241,41 @@
         <v>176500</v>
       </c>
     </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2698" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2698" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2698" t="n">
+        <v>410700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2698"/>
+  <dimension ref="A1:I2699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95276,6 +95276,41 @@
         <v>410700</v>
       </c>
     </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2699" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2699" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2699"/>
+  <dimension ref="A1:I2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95311,6 +95311,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2700" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2700" t="n">
+        <v>244800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2700"/>
+  <dimension ref="A1:I2701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95346,6 +95346,41 @@
         <v>244800</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2701" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2701" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2701" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2701" t="n">
+        <v>843500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2701"/>
+  <dimension ref="A1:I2703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95381,6 +95381,76 @@
         <v>843500</v>
       </c>
     </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2702" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2702" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2702" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2702" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2703" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2703" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2703" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2703" t="n">
+        <v>356500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2703"/>
+  <dimension ref="A1:I2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95451,6 +95451,41 @@
         <v>356500</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2704" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2704" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2704" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2704" t="n">
+        <v>1477700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2704"/>
+  <dimension ref="A1:I2707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95486,6 +95486,111 @@
         <v>1477700</v>
       </c>
     </row>
+    <row r="2705">
+      <c r="A2705" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2705" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2705" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2705" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2705" t="n">
+        <v>352700</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2706" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2706" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2706" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2706" t="n">
+        <v>145800</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2707" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2707" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2707" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2707" t="n">
+        <v>2117300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2707"/>
+  <dimension ref="A1:I2708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95591,6 +95591,41 @@
         <v>2117300</v>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2708" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2708" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2708" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2708" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2708" t="n">
+        <v>4800000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2708"/>
+  <dimension ref="A1:I2709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95626,6 +95626,41 @@
         <v>4800000</v>
       </c>
     </row>
+    <row r="2709">
+      <c r="A2709" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2709" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2709" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2709" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2709" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2709" t="n">
+        <v>503500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0089.xlsx
+++ b/data/0089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2709"/>
+  <dimension ref="A1:I2712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95661,6 +95661,111 @@
         <v>503500</v>
       </c>
     </row>
+    <row r="2710">
+      <c r="A2710" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2710" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2710" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2710" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2710" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2710" t="n">
+        <v>669200</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2711" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2711" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2711" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2711" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2711" t="n">
+        <v>436500</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>0089</t>
+        </is>
+      </c>
+      <c r="D2712" t="inlineStr">
+        <is>
+          <t>TEXCYCL</t>
+        </is>
+      </c>
+      <c r="E2712" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2712" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2712" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2712" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2712" t="n">
+        <v>518400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
